--- a/secure/26e-Janik.xlsx
+++ b/secure/26e-Janik.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26e-Janik-288313</t>
+    <t>26e-Janik-564880</t>
   </si>
   <si>
-    <t>26e-Janik-909703</t>
+    <t>26e-Janik-508942</t>
   </si>
   <si>
-    <t>26e-Janik-718448</t>
+    <t>26e-Janik-245272</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F23ce272"/>
+        <fgColor rgb="Fd5d9542"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:VS503"/>
+  <dimension ref="A1:QW503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -697,11 +697,14 @@
       </c>
       <c r="M41" s="4"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:200" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>-0.84</v>
       </c>
       <c r="M42" s="4"/>
+      <c r="GR42" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
@@ -1837,14 +1840,11 @@
       </c>
       <c r="M231" s="4"/>
     </row>
-    <row r="232" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>-0.08</v>
       </c>
       <c r="M232" s="4"/>
-      <c r="FK232" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
@@ -2260,14 +2260,11 @@
       </c>
       <c r="M301" s="4"/>
     </row>
-    <row r="302" spans="1:179" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
         <v>0.2</v>
       </c>
       <c r="M302" s="4"/>
-      <c r="FW302" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
@@ -2695,11 +2692,14 @@
       </c>
       <c r="M373" s="4"/>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:252" x14ac:dyDescent="0.25">
       <c r="A374" s="3">
         <v>0.488</v>
       </c>
       <c r="M374" s="4"/>
+      <c r="IR374" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" s="3">
@@ -2797,11 +2797,14 @@
       </c>
       <c r="M390" s="4"/>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:465" x14ac:dyDescent="0.25">
       <c r="A391" s="3">
         <v>0.556</v>
       </c>
       <c r="M391" s="4"/>
+      <c r="QW391" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" s="3">
@@ -3301,14 +3304,11 @@
       </c>
       <c r="M474" s="4"/>
     </row>
-    <row r="475" spans="1:591" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A475" s="3">
         <v>0.892</v>
       </c>
       <c r="M475" s="4"/>
-      <c r="VS475" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476" s="3">
